--- a/Đăng ký.xlsx
+++ b/Đăng ký.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BD1A4C-2D78-453B-8DB7-FE081FEBA9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E67A7-4D46-4A0F-AF32-D465DDD9C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3319B798-D574-4F5F-BCF7-66B82C6504CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="1" r:id="rId1"/>
+    <sheet name="Layout Register" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$8:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Register!$A$8:$G$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -82,9 +83,6 @@
     <t xml:space="preserve">Pass </t>
   </si>
   <si>
-    <t>An successful message "student id does not exist" is shown</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -93,9 +91,6 @@
 2. Invalid password input                              3.Confirm password                                  4.Click the [Đăng ký] button."</t>
   </si>
   <si>
-    <t>An successful message "Invalid password" is shown</t>
-  </si>
-  <si>
     <t>TC04</t>
   </si>
   <si>
@@ -104,9 +99,6 @@
 2. Enter password                             3.Confirm password is incorrect                                 4.Click the [Đăng ký] button."</t>
   </si>
   <si>
-    <t>An successful message "Confirm password is incorrect" is shown</t>
-  </si>
-  <si>
     <t>Module Code</t>
   </si>
   <si>
@@ -124,13 +116,33 @@
   <si>
     <t xml:space="preserve">"- Student ID
 - Password"    </t>
+  </si>
+  <si>
+    <t>An successful message "Mã số sinh viên không tồn tại!" is shown</t>
+  </si>
+  <si>
+    <t>An successful message "Mật khẩu xác nhận không chính xác" is shown</t>
+  </si>
+  <si>
+    <t>An successful message "Mật khẩu không hợp lệ" is shown</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>An successful message" Lỗi kết nối với cơ sở dữ liệu" is shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"On the Sign Up Screen                                                                      
+1. Fill all required information
+2. Click the [Đăng ký] button."                               3. Database connection failed.                                </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,10 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Droid Sans"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -170,10 +178,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -190,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -217,30 +237,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -267,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,40 +277,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -331,6 +326,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426721</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>72216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2846A636-7107-14B7-C01E-A9C2772A82BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9570721" y="26044"/>
+          <a:ext cx="7894320" cy="5166812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38DBD28-9B2B-4852-97F8-A58D4900D73C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="64" style="1" customWidth="1"/>
@@ -644,108 +688,109 @@
     <col min="4" max="4" width="32.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.8">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" ht="40.799999999999997" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.8">
-      <c r="A3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="13.8" customHeight="1">
+    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="2"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="46.8">
+    <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -768,7 +813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="93.6">
+    <row r="10" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -778,20 +823,20 @@
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="78">
+    </row>
+    <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -801,22 +846,22 @@
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
+      <c r="F11" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="78">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -824,27 +869,61 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
+      <c r="F12" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A8:G12" xr:uid="{C38DBD28-9B2B-4852-97F8-A58D4900D73C}"/>
-  <mergeCells count="2">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B3:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF0A457-8166-4C48-9BD8-E002FC147C26}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Đăng ký.xlsx
+++ b/Đăng ký.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E67A7-4D46-4A0F-AF32-D465DDD9C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828FBAD7-6E03-4210-936A-200A972A3D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3319B798-D574-4F5F-BCF7-66B82C6504CE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Layout Register" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Register!$A$8:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Register!$A$8:$H$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -43,60 +43,7 @@
     <t>Expected Output</t>
   </si>
   <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>Open the successful account creation screen</t>
-  </si>
-  <si>
-    <t>"On the Sign Up Screen                                                                      
-1. Fill all required information
-2. Click the [Đăng ký] button."</t>
-  </si>
-  <si>
-    <t>Sign Up Success</t>
-  </si>
-  <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful registration with existing student ID and valid password </t>
-  </si>
-  <si>
-    <t>"On the Sign Up Screen                                                                      
-1. Enter student id does not exist
-2. Enter password                               3.Confirm password                                  4.Click the [Đăng ký] button."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass </t>
-  </si>
-  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>"On the Sign Up Screen                                                                      
-1. Enter student id 
-2. Invalid password input                              3.Confirm password                                  4.Click the [Đăng ký] button."</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>"On the Sign Up Screen                                                                      
-1. Enter student id 
-2. Enter password                             3.Confirm password is incorrect                                 4.Click the [Đăng ký] button."</t>
   </si>
   <si>
     <t>Module Code</t>
@@ -118,31 +65,140 @@
 - Password"    </t>
   </si>
   <si>
-    <t>An successful message "Mã số sinh viên không tồn tại!" is shown</t>
-  </si>
-  <si>
-    <t>An successful message "Mật khẩu xác nhận không chính xác" is shown</t>
-  </si>
-  <si>
-    <t>An successful message "Mật khẩu không hợp lệ" is shown</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>An successful message" Lỗi kết nối với cơ sở dữ liệu" is shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"On the Sign Up Screen                                                                      
-1. Fill all required information
-2. Click the [Đăng ký] button."                               3. Database connection failed.                                </t>
+    <t>Test date</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Khi mã số sinh viên đã có tài khoản</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Tài khoản đã tồn tại!".</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Inter-test case Dependence</t>
+  </si>
+  <si>
+    <t>Function: Register</t>
+  </si>
+  <si>
+    <t>Check GUI-REGISTER</t>
+  </si>
+  <si>
+    <t>GUI-RegisterRGT-01</t>
+  </si>
+  <si>
+    <t>Tài khoản (Mã số sinh viên)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mật khẩu </t>
+  </si>
+  <si>
+    <t>Nhập lại mật khẩu</t>
+  </si>
+  <si>
+    <t>Đăng ký</t>
+  </si>
+  <si>
+    <t>Trang chủ</t>
+  </si>
+  <si>
+    <t>GUI-RegisterRGT-02</t>
+  </si>
+  <si>
+    <t>GUI-RegisterRGT-03</t>
+  </si>
+  <si>
+    <t>GUI-RegisterRGT-04</t>
+  </si>
+  <si>
+    <t>GUI-RegisterRGT-05</t>
+  </si>
+  <si>
+    <t>Nhập mã số sinh viên</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu</t>
+  </si>
+  <si>
+    <t>Status = enable</t>
+  </si>
+  <si>
+    <t>FUNC-RegisterRGT-01</t>
+  </si>
+  <si>
+    <t>FUNC-RegisterRGT-02</t>
+  </si>
+  <si>
+    <t>FUNC-RegisterRGT-03</t>
+  </si>
+  <si>
+    <t>FUNC-RegisterRGT-04</t>
+  </si>
+  <si>
+    <t>FUNC-RegisterRGT-05</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Mã số sinh viên không tồn tại!".</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo “Mật khẩu xác nhận không chính xác”.</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo “Vượt giới hạn ký tự tối đa!”.</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo “Lỗi kết nối với cơ sở dữ liệu”.</t>
+  </si>
+  <si>
+    <t>Tại màn hình đăng ký:                                      1. Nhập dữ liệu có lỗi kết nối cơ sở dữ liệu          2.Nhấn Đăng ký</t>
+  </si>
+  <si>
+    <t>Tại màn hình đăng ký:                                            1. Nhập giá trị một ô vượt quá giới hạn nhập tối đa                                                         2.Nhấn Đăng ký</t>
+  </si>
+  <si>
+    <t>Tại màn hình đăng ký:                                              1. Xác nhận mật khẩu không khớp          2.Nhấn Đăng ký</t>
+  </si>
+  <si>
+    <t>Tại màn hình đăng ký:                                        1. Nhập mã số sinh viên không tồn tại trên cơ sơ dữ liệu                                                  2.Nhấn Đăng ký</t>
+  </si>
+  <si>
+    <t>Tại màn hình đăng ký:                                      1. Nhập mã số sinh viên đã sử dụng          2.Nhấn Đăng ký</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Untested</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Number of Test cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập mã số sinh viên không tồn tại trên cơ sơ dữ liệu </t>
+  </si>
+  <si>
+    <t>Xác nhận mật khẩu không khớp</t>
+  </si>
+  <si>
+    <t>Nhập dữ liệu có lỗi kết nối cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập giá trị một ô vượt quá giới hạn nhập tối đa </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +251,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +334,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -259,11 +414,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,20 +537,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -311,9 +565,80 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{7A52B228-28C2-44E0-B48E-C99CD9299CEC}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{9C63EA24-6EC3-460A-9A43-988D4B526E29}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E4C914A9-9722-472A-928C-FDC1FFAEF295}"/>
+    <cellStyle name="Normal_Sheet1" xfId="4" xr:uid="{265B4C46-B39C-40D2-BA74-051C23932AA5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,239 +999,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38DBD28-9B2B-4852-97F8-A58D4900D73C}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.8">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="40.799999999999997" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="33.6">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="21.6" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.6" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.8">
+      <c r="A11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.8">
+      <c r="A12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.8">
+      <c r="A13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.8">
+      <c r="A14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.8">
+      <c r="A15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" ht="46.8">
+      <c r="A19" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="62.4">
+      <c r="A20" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="46.8">
+      <c r="A21" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="62.4">
+      <c r="A22" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="46.8">
+      <c r="A23" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G12" xr:uid="{C38DBD28-9B2B-4852-97F8-A58D4900D73C}"/>
+  <autoFilter ref="A8:H13" xr:uid="{C38DBD28-9B2B-4852-97F8-A58D4900D73C}"/>
+  <mergeCells count="6">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -921,7 +1380,7 @@
       <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
